--- a/students and staff.xlsx
+++ b/students and staff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasan\OneDrive\Desktop\IV2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9231DDBC-4249-406E-8EA8-7FB5417728F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A371E2E6-6752-4AF8-BC26-2ECFC85A395D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="66">
   <si>
     <t>Names</t>
   </si>
@@ -100,12 +100,6 @@
     <t>TYIT</t>
   </si>
   <si>
-    <t>rahul sawant</t>
-  </si>
-  <si>
-    <t>chitra Prabhu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prathamesh Anil Patkar </t>
   </si>
   <si>
@@ -212,13 +206,31 @@
   </si>
   <si>
     <t>Mr Mahesh Ghadi</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Rahul sawant</t>
+  </si>
+  <si>
+    <t>Chitra Prabhu</t>
+  </si>
+  <si>
+    <t>staff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +275,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,7 +290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -370,11 +388,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -388,15 +451,20 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="88" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,25 +811,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -769,7 +837,9 @@
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
@@ -783,6 +853,9 @@
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" s="4">
@@ -794,6 +867,9 @@
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C6" s="4">
@@ -804,6 +880,9 @@
       </c>
       <c r="E6" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -816,6 +895,9 @@
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C8" s="4">
@@ -827,6 +909,9 @@
       <c r="E8" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C9" s="4">
@@ -838,6 +923,9 @@
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10" s="4">
@@ -849,6 +937,9 @@
       <c r="E10" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" s="4">
@@ -860,7 +951,9 @@
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
@@ -874,7 +967,9 @@
       <c r="E12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
@@ -888,7 +983,9 @@
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
@@ -902,7 +999,9 @@
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
@@ -916,7 +1015,9 @@
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
@@ -930,7 +1031,9 @@
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
@@ -944,7 +1047,9 @@
       <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
@@ -958,7 +1063,9 @@
       <c r="E18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
@@ -972,7 +1079,9 @@
       <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
@@ -986,7 +1095,9 @@
       <c r="E20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
@@ -1000,7 +1111,9 @@
       <c r="E21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
@@ -1014,7 +1127,9 @@
       <c r="E22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
@@ -1023,12 +1138,14 @@
         <v>20</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
@@ -1037,12 +1154,14 @@
         <v>21</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
@@ -1051,12 +1170,14 @@
         <v>22</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
@@ -1065,12 +1186,14 @@
         <v>23</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
@@ -1079,12 +1202,14 @@
         <v>24</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
@@ -1098,7 +1223,9 @@
       <c r="E28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
@@ -1107,12 +1234,14 @@
         <v>26</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
@@ -1121,12 +1250,14 @@
         <v>27</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
@@ -1135,12 +1266,14 @@
         <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
@@ -1149,12 +1282,14 @@
         <v>29</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
@@ -1163,12 +1298,14 @@
         <v>30</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
@@ -1177,12 +1314,14 @@
         <v>31</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
@@ -1191,12 +1330,14 @@
         <v>32</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
@@ -1205,12 +1346,14 @@
         <v>33</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
@@ -1219,12 +1362,14 @@
         <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
@@ -1233,12 +1378,14 @@
         <v>35</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
@@ -1247,12 +1394,14 @@
         <v>36</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
@@ -1261,12 +1410,14 @@
         <v>37</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
@@ -1275,12 +1426,14 @@
         <v>38</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
@@ -1289,12 +1442,14 @@
         <v>39</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
@@ -1303,12 +1458,14 @@
         <v>40</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
@@ -1317,12 +1474,14 @@
         <v>41</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
@@ -1331,12 +1490,14 @@
         <v>42</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
@@ -1345,12 +1506,14 @@
         <v>43</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
@@ -1359,12 +1522,14 @@
         <v>44</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
@@ -1373,12 +1538,14 @@
         <v>45</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
@@ -1387,12 +1554,14 @@
         <v>46</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="2"/>
+      <c r="F49" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
@@ -1401,12 +1570,14 @@
         <v>47</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F50" s="2"/>
+      <c r="F50" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
@@ -1415,12 +1586,14 @@
         <v>48</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F51" s="2"/>
+      <c r="F51" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
@@ -1429,12 +1602,14 @@
         <v>49</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
@@ -1443,12 +1618,14 @@
         <v>50</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="2"/>
+      <c r="F53" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
@@ -1457,12 +1634,14 @@
         <v>51</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="2"/>
+      <c r="F54" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
@@ -1471,10 +1650,13 @@
         <v>52</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1483,26 +1665,44 @@
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C57" s="13">
+      <c r="C57" s="11">
         <v>53</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C58" s="14">
+      <c r="C58" s="12">
         <v>54</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="15">
+      <c r="C59" s="13">
         <v>55</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="20" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1510,6 +1710,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/students and staff.xlsx
+++ b/students and staff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasan\OneDrive\Desktop\IV2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A371E2E6-6752-4AF8-BC26-2ECFC85A395D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9047E19-73E5-4832-B25F-4BF620221572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3588" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
   <si>
     <t>Names</t>
   </si>
@@ -224,13 +224,16 @@
   </si>
   <si>
     <t>staff</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +284,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -392,10 +403,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -407,10 +416,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -422,9 +429,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -437,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -454,17 +459,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,18 +801,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" customWidth="1"/>
   </cols>
@@ -816,894 +824,1063 @@
       <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="18" t="s">
         <v>60</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="4">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>61</v>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="23">
+        <v>9607377076</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="4">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>62</v>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="23">
+        <v>8806466900</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="4">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>62</v>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="23">
+        <v>9765437356</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="4">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>61</v>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="23">
+        <v>9422381844</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="4">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>61</v>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="23">
+        <v>9673375156</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="4">
+      <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>62</v>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="23">
+        <v>8552048877</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="4">
+      <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>61</v>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="23">
+        <v>9422998117</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="4">
+      <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>61</v>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="23">
+        <v>9423443615</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="4">
+      <c r="B12" s="4">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>62</v>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="23">
+        <v>9420965055</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="4">
+      <c r="B13" s="4">
         <v>10</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>62</v>
+      <c r="D13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="23">
+        <v>9420349457</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="4">
+      <c r="B14" s="4">
         <v>11</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>61</v>
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="23">
+        <v>9405776875</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="4">
+      <c r="B15" s="4">
         <v>12</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>62</v>
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="23">
+        <v>7385033180</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="4">
+      <c r="B16" s="4">
         <v>13</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>61</v>
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="23">
+        <v>9421124433</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
         <v>14</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>62</v>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="23">
+        <v>7776844033</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
         <v>15</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>61</v>
+      <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="23">
+        <v>7218490385</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
         <v>16</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>61</v>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="23">
+        <v>9765255452</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
         <v>17</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>61</v>
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="23">
+        <v>7875919543</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
         <v>18</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>62</v>
+      <c r="D21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="23">
+        <v>9422136210</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
         <v>19</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>62</v>
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="23">
+        <v>9423336074</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
         <v>20</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>61</v>
+      <c r="D23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="23">
+        <v>8208145785</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
         <v>21</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>61</v>
+      <c r="D24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="23">
+        <v>9405452659</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
         <v>22</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>62</v>
+      <c r="D25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="23">
+        <v>9403751338</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="4">
-        <v>23</v>
-      </c>
-      <c r="D26" s="5" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>61</v>
+      <c r="D26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="23">
+        <v>9404917429</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
         <v>24</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>61</v>
+      <c r="D27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="23">
+        <v>9423215816</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
         <v>25</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>61</v>
+      <c r="D28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="23">
+        <v>9420338601</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
         <v>26</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>62</v>
+      <c r="D29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="23">
+        <v>9420209926</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
         <v>27</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>61</v>
+      <c r="D30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="23">
+        <v>9834829296</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
         <v>28</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>62</v>
+      <c r="D31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="23">
+        <v>8275631808</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="4">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
         <v>29</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>61</v>
+      <c r="D32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="23">
+        <v>9765840196</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="4">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
         <v>30</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>62</v>
+      <c r="D33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="23">
+        <v>8424992066</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="4">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
         <v>31</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>62</v>
+      <c r="D34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="23">
+        <v>9420308700</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="4">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
         <v>32</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>62</v>
+      <c r="D35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="23">
+        <v>9404749775</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="4">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
         <v>33</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>61</v>
+      <c r="D36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="23">
+        <v>9075769039</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="4">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
         <v>34</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>61</v>
+      <c r="D37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="23">
+        <v>9158156380</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="4">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
         <v>35</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>61</v>
+      <c r="D38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="23">
+        <v>9607680936</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="4">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
         <v>36</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>62</v>
+      <c r="D39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="23">
+        <v>9823010665</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="4">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
         <v>37</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>61</v>
+      <c r="D40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="23">
+        <v>9421020761</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="4">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
         <v>38</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>62</v>
+      <c r="D41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="23">
+        <v>7066671610</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="4">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
         <v>39</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>61</v>
+      <c r="D42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="23">
+        <v>8806464711</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="4">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
         <v>40</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>61</v>
+      <c r="D43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="23">
+        <v>9403563915</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="4">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
         <v>41</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>62</v>
+      <c r="D44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="23">
+        <v>9420205933</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="4">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
         <v>42</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>62</v>
+      <c r="D45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="23">
+        <v>7775869897</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="4">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
         <v>43</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>61</v>
+      <c r="D46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="23">
+        <v>9423348461</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="4">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
         <v>44</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>61</v>
+      <c r="D47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="23">
+        <v>9422963679</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="4">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
         <v>45</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>62</v>
+      <c r="D48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="23">
+        <v>9403559795</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C49" s="4">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
         <v>46</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>62</v>
+      <c r="D49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="23">
+        <v>8468875337</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C50" s="4">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
         <v>47</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>61</v>
+      <c r="D50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="23">
+        <v>9823934631</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C51" s="4">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
         <v>48</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>62</v>
+      <c r="D51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="23">
+        <v>9422584347</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C52" s="4">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
         <v>49</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>61</v>
+      <c r="D52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="23">
+        <v>9422067049</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C53" s="4">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
         <v>50</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>61</v>
+      <c r="D53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="23">
+        <v>9158155421</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C54" s="4">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="4">
         <v>51</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>62</v>
+      <c r="D54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="23">
+        <v>7588627923</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C55" s="4">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
         <v>52</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="23">
+        <v>9403363950</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C57" s="11">
+      <c r="F56" s="23"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="11">
         <v>53</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="D57" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C58" s="12">
+      <c r="E57" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="23">
+        <v>9423029348</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="12">
         <v>54</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F58" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="13">
+      <c r="E58" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="23">
+        <v>9923506591</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="13">
         <v>55</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="D59" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="20" t="s">
-        <v>61</v>
+      <c r="E59" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="23">
+        <v>9975887832</v>
       </c>
     </row>
   </sheetData>
